--- a/Znode9X/TestData/ProductAttributes/Attributes/ProductAttribute(AddNew)TestData  Main.xlsx
+++ b/Znode9X/TestData/ProductAttributes/Attributes/ProductAttribute(AddNew)TestData  Main.xlsx
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C25"/>
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WEA198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:B48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
